--- a/medicine/Sexualité et sexologie/Bad_Dragon/Bad_Dragon.xlsx
+++ b/medicine/Sexualité et sexologie/Bad_Dragon/Bad_Dragon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bad Dragon est une entreprise américaine fabriquant des godemichets et vagins artificiels principalement dans le milieu fantaisiste, les articles sont vendus uniquement par Internet ou par le biais de conventions.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société Bad Dragon est fondée en juillet 2008[1],[2]. Varka, un des quatre cofondateurs, a commencé l'année précédente à fabriquer des jouets sexuels dans sa chambre d’étudiant en Écosse[1],[3]. Le siège de la compagnie est à présent en Arizona[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société Bad Dragon est fondée en juillet 2008,. Varka, un des quatre cofondateurs, a commencé l'année précédente à fabriquer des jouets sexuels dans sa chambre d’étudiant en Écosse,. Le siège de la compagnie est à présent en Arizona.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En septembre 2021, Bad Dragon a une variété de 72 godemichets et 24 vagins artificiels, tous fabriqués en silicone durci au platine[2]. 
-Les produits de la compagnie sont destinés aux fans de fantasy , incluant les formes de dragons (34 godemichets)[5], dinosaures, chevaux, orques, chimères, et les loups-garous[2],[3],[6],[7] Le site Internet donne pour chaque produit une photo ainsi qu'une description[4],[5],[7]. 
-Les produits peuvent être largement personnalisés, avec un choix de couleurs, des choix de fermeté, et la taille du godemiché[3]; les clients peuvent soumettre leurs propres créations, dont certaines sont choisies chaque mois pour une production spéciale[2]. 
-Les godemichés peuvent être commandés avec un tube pour simuler l'éjaculation[4]; la compagnie vend aussi du lubrifiant nommé Cum Lube (c'est-à-dire lubrifiant éjaculat)[2],[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2021, Bad Dragon a une variété de 72 godemichets et 24 vagins artificiels, tous fabriqués en silicone durci au platine. 
+Les produits de la compagnie sont destinés aux fans de fantasy , incluant les formes de dragons (34 godemichets), dinosaures, chevaux, orques, chimères, et les loups-garous Le site Internet donne pour chaque produit une photo ainsi qu'une description. 
+Les produits peuvent être largement personnalisés, avec un choix de couleurs, des choix de fermeté, et la taille du godemiché; les clients peuvent soumettre leurs propres créations, dont certaines sont choisies chaque mois pour une production spéciale. 
+Les godemichés peuvent être commandés avec un tube pour simuler l'éjaculation; la compagnie vend aussi du lubrifiant nommé Cum Lube (c'est-à-dire lubrifiant éjaculat).
 </t>
         </is>
       </c>
